--- a/medicine/Enfance/Jean_Ollivier/Jean_Ollivier.xlsx
+++ b/medicine/Enfance/Jean_Ollivier/Jean_Ollivier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yves Ollivier, dit Jean Ollivier, est un journaliste français, auteur de bande dessinée et de littérature jeunesse, né le 14 avril 1925 à Plourivo près de Paimpol et décédé le 30 décembre 2005 à Paris[1]. Il débute en 1947 dans le journal Vaillant, dont il est rédacteur en chef de 1949 à 1958. Il est le créateur prolifique de nombreuses séries telles Yves le Loup avec René Bastard en 1947, Ragnar avec Eduardo Coelho en 1955, Loup Noir avec Kline en 1969 ou encore Docteur Justice avec Marcello en 1970. Il prend également la succession de Jean-Michel Charlier au scénario de la série Barbe-Rouge avec Christian Gaty au dessin, à partir de 1987.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yves Ollivier, dit Jean Ollivier, est un journaliste français, auteur de bande dessinée et de littérature jeunesse, né le 14 avril 1925 à Plourivo près de Paimpol et décédé le 30 décembre 2005 à Paris. Il débute en 1947 dans le journal Vaillant, dont il est rédacteur en chef de 1949 à 1958. Il est le créateur prolifique de nombreuses séries telles Yves le Loup avec René Bastard en 1947, Ragnar avec Eduardo Coelho en 1955, Loup Noir avec Kline en 1969 ou encore Docteur Justice avec Marcello en 1970. Il prend également la succession de Jean-Michel Charlier au scénario de la série Barbe-Rouge avec Christian Gaty au dessin, à partir de 1987.
 </t>
         </is>
       </c>
@@ -513,48 +525,128 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les débuts
-Jean Ollivier commence sa carrière de journaliste à Avant-garde, un mensuel, journal lié au mouvement des jeunes communistes français. Il y fait la connaissance de René Moreu, qui l'incite à intégrer l’équipe de Vaillant. 
-Vaillant
-Érudit et passionné d'histoire, Jean Ollivier devient un scénariste incontournable au sein du journal Vaillant. Sa première collaboration en la matière s'inspire du mythe arthurien ; il reprend la série Yves le Loup avec René Bastard au dessin en 1947, série qu'il anime jusqu'en 1965.
+          <t>Les débuts</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Ollivier commence sa carrière de journaliste à Avant-garde, un mensuel, journal lié au mouvement des jeunes communistes français. Il y fait la connaissance de René Moreu, qui l'incite à intégrer l’équipe de Vaillant. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vaillant</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Érudit et passionné d'histoire, Jean Ollivier devient un scénariste incontournable au sein du journal Vaillant. Sa première collaboration en la matière s'inspire du mythe arthurien ; il reprend la série Yves le Loup avec René Bastard au dessin en 1947, série qu'il anime jusqu'en 1965.
 Avec Roger Lécureux, il devient un des piliers du journal, au point d'en devenir le rédacteur eu chef de 1949 à 1958. Le personnage, qui devient vite populaire, de P'tit Joc est créé avec André Joy en 1952. En 1955, il crée la série Ragnar avec Eduardo Coelho, sur un thème qui va s'avérer récurrent tout au long de sa carrière : l'univers des Vikings. C'est aussi le début d'une longue collaboration avec le dessinateur portugais qui durera jusqu'à la fin de Pif gadget.
 Avec le passage de Vaillant à Pif gadget en 1969, Jean Ollivier créé de nouvelles séries pour s'adapter au format des récits complets. Ainsi Loup Noir débute cette même année avec Kline. Il rencontre le succès avec la série Docteur Justice dessinée par Marcello en 1970.
-Auteur de littérature jeunesse
-Parallèlement à son activité dans le domaine de la bande dessinée, Jean Ollivier est un auteur de livres pour la jeunesse. Il est publié par les Éditions La Farandole où, avec son collègue René Moreu comme illustrateur, il participe au renom de qualité de cet éditeur. Ainsi, pour l'ouvrage Les Saltimbanques, il figure dans la Sélection des meilleurs livres 1962, établie par le « Comité des expositions du livre et des Arts Graphiques », et, en 1964, dans la « Runner-Up List »[2], de l' Union internationale pour les livres de jeunesse (IBBY). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteur de littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parallèlement à son activité dans le domaine de la bande dessinée, Jean Ollivier est un auteur de livres pour la jeunesse. Il est publié par les Éditions La Farandole où, avec son collègue René Moreu comme illustrateur, il participe au renom de qualité de cet éditeur. Ainsi, pour l'ouvrage Les Saltimbanques, il figure dans la Sélection des meilleurs livres 1962, établie par le « Comité des expositions du livre et des Arts Graphiques », et, en 1964, dans la « Runner-Up List », de l' Union internationale pour les livres de jeunesse (IBBY). 
 Il a aussi publié à La Farandole un roman à destination des jeunes, Colin Lantier.  En 1950 Jean Ollivier  publie, en italien et dans la revue italienne "Il Pioniere", une histoire en plusieurs épisodes dont le titre est : Ivorio et le loup du n°23 au n°32.
 Dans la même structure d'édition, Pif/La Farandole et Messidor/ La Farandole, il est le scénariste de livres racontant en bandes dessinées la Révolution française.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jean_Ollivier</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Séries de bande dessinée en tant que scénariste
-Yves le Loup (reprise), avec René Bastard (1947-1960 et 1962-1965) et Eduardo Coelho (1960-1961)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Séries de bande dessinée en tant que scénariste</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yves le Loup (reprise), avec René Bastard (1947-1960 et 1962-1965) et Eduardo Coelho (1960-1961)
 Capitaine Cormoran avec Lucien Nortier (1948-1950), puis Paul Gillon (1954-1959)
 Jean et Jeannette avec Jacques Souriau (1950)
 P'tit Joc avec André Joy (1952-1953), puis avec Juan B. Miguel Muñoz (1958-1960) et Claude-Henri (1961-1962)
@@ -577,15 +669,49 @@
 Blackstar avec Christian Gaty (1985)
 Barbe-Rouge (reprise) avec Christian Gaty (1987-1997)
 24. La Cité de la mort, éditions Novedi, 1987
-26. Pirates en mer des Indes, Alpen Publishers, 1991[3]
+26. Pirates en mer des Indes, Alpen Publishers, 1991
 27. La Fiancée du grand Moghol, Alpen Publishers, 1991
 28. La Flibustière du « Sans Pitié », Dargaud, 1993
 29. À Nous la Tortue, Dargaud, 1995
 30. L'Or et la gloire, Dargaud, 1996
 31. La Guerre des pirates, Dargaud, 1997
-Padraig avec Max Lenvers (2 tomes publiés après sa mort).
-Séries de bande dessinée publiées en petit format
-Marco Polo avec Enzo Chiomenti (1959-1987)
+Padraig avec Max Lenvers (2 tomes publiés après sa mort).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Séries de bande dessinée publiées en petit format</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Marco Polo avec Enzo Chiomenti (1959-1987)
 Perceval avec René Bastard, puis Santo D'Amico (1959-1963)
 Ivanhoé avec Otellio Scarpelli, José Riera et René Bastard (1960-1988)
 Lancelot avec Francey, José Riera, Otellio Scarpelli, puis Santo D'Amico (1961-1987)
@@ -595,18 +721,86 @@
 Thierry la Fronde avec Alberto Salinas et Sergio Tarquinio (1964-1966)
 Puma Noir (reprise) avec Joseph Garcia (1968-1986)
 Sylver des Collines (scénariste occasionnel) avec Tito Marchioro
-Dan Panther (scénariste occasionnel) avec Santo D'Amico et Roberto Diso
-Adaptations BD
-Till Ulenspiegel avec Eduardo Coelho (1956), d'après Charles de Coster
+Dan Panther (scénariste occasionnel) avec Santo D'Amico et Roberto Diso</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Adaptations BD</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Till Ulenspiegel avec Eduardo Coelho (1956), d'après Charles de Coster
 Gavroche avec André Chéret (1979), d'après le personnage de Victor Hugo
 Le Livre de la jungle avec José de Huéscar (1982), d'après Rudyard Kipling
 Moby Dick avec Paul Gillon (1982), d'après Herman Melville
 Croc-Blanc avec Sonk, d'après Jack London
 Croc-Blanc, 1984
 Le Temps de la haine, 1985
-La Terre du sud, 1986
-Bandes dessinées didactiques
-Participation aux collections Larousse :
+La Terre du sud, 1986</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bandes dessinées didactiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Participation aux collections Larousse :
 Histoire de la France en bandes dessinées avec Eduardo Coelho, Raymond Poïvet et Jaime Marzal Canos (1976-1978)
 La Découverte du monde en bandes dessinées avec Eduardo Coelho et José Bielsa (1978-1980)
 Histoire du Far-West avec Marcello, Paolo Eleuteri Serpieri, Christian Gaty et Paolo Ongaro (1980-1982)
@@ -614,9 +808,43 @@
 Noël et Marie, avec François Corteggiani (coscénariste) et Jean-Yves Mitton (dessin), Éditions Messidor / La Farandole :
 Deux enfants dans la Révolution française, mars 1989.
 La Patrie en danger, juin 1789.
-Valmy 1792, août 1989.
-Bandes dessinées diverses
-Rouge et Or avec Raymond Poïvet (1949)
+Valmy 1792, août 1989.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bandes dessinées diverses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Rouge et Or avec Raymond Poïvet (1949)
 Jojo des rues avec André Joy (1956)
 Ryan l’Irlandais avec André Joy (1969)
 Le Cas Landru avec Jean-Paul Decoudun, 1969
@@ -630,10 +858,47 @@
 Cœur de gris
 Le Bâtard de Vénus (sous le pseudonyme de Maraud) avec José de Huéscar (sous le pseudonyme de Garvi), 1987
 François Villon, Une vie dissolue (sous le pseudonyme de Maraud) avec Theophraste, 1987
-La Nuit barbare avec Marcello, 1988 (publié dans L'Écho des savanes).
-Livres illustrés
-Avec René Moreu, éditions La Farandole
-Les ruses de Renard, coll. "Mille images", 1956
+La Nuit barbare avec Marcello, 1988 (publié dans L'Écho des savanes).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Livres illustrés</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Avec René Moreu, éditions La Farandole</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les ruses de Renard, coll. "Mille images", 1956
 Si le marais parlait, coll. "Mille images", 1956
 Chacun fait son nid, coll. "Mille images", 1957
 Aux Quatre coins du pré, coll. "Mille images", 1958
@@ -643,9 +908,47 @@
 Là-haut sur la montagne, coll. "Mille images", 1964
 Aventures des quatre mers, coll. "Jour de fête", 1964
 Au pays des Indiens, coll. "Jour de fête", 1966
-Qui donc est Boomj, pièce de théâtre en 5 actes, coll. "Jour de fête", 1974
-Autres
-Chasse-Marée boucanier avec Marcel Tillard, Les Impressions Rapides, 1954
+Qui donc est Boomj, pièce de théâtre en 5 actes, coll. "Jour de fête", 1974</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Livres illustrés</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Chasse-Marée boucanier avec Marcel Tillard, Les Impressions Rapides, 1954
 « Plume blanche le vantard », conte extrait de 21 contes racontés aux enfants, avec René Moreu, Éditions Vaillant, 1963
 J'apprends à connaître le bord de la mer avec Nicole Hosxe, éditions Odege, 1970
 « Le Faiseur de pluie », nouvelle extraite de 15 Histoires d'Indiens, avec Jacques Pecnard, coll. "Série 15", éditions Gautier-Languereau, 1971 (?)
@@ -658,16 +961,91 @@
 Vikings, Conquérants de la mer avec Eduardo Coelho, éditions La Farandole, 1975
 J'étais enfant aux temps vikings avec Eduardo Coelho, éditions du Sorbier, 1982
 Une Colonie viking au Groenland  avec Eduardo Coelho, éditions Albin Michel jeunesse, 1985
-Les Gaulois et le monde celte avec Éric Albert, coll. "Nouvelle encyclopédie", Nathan, 1989
-Romans
-Éditions La Farandole
-Colin Lantier avec Daniel Billon, coll. "Mille épisodes" (destinée au 10-14 ans), 1957
+Les Gaulois et le monde celte avec Éric Albert, coll. "Nouvelle encyclopédie", Nathan, 1989</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Éditions La Farandole</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Colin Lantier avec Daniel Billon, coll. "Mille épisodes" (destinée au 10-14 ans), 1957
 Pik-Ouik mon copain... avec Yvon Le Roy, coll. "8, 9, 10, Farandole en poche", 1978
 Debout les Jacques !, 1983
 Et l'Amérique découvrit Christophe Colomb, adapté par Francine Michard et Francisco Rivero, 1991
-Le Dragon Bonaventure avec Isabelle Chatellard, coll. "Farandole en poche", 1993 (?)
-Éditions G.P.
-Le Mercure d'or avec Pierre Le Guen, coll. "Rouge et Or Dauphine", 1957
+Le Dragon Bonaventure avec Isabelle Chatellard, coll. "Farandole en poche", 1993 (?)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Éditions G.P.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le Mercure d'or avec Pierre Le Guen, coll. "Rouge et Or Dauphine", 1957
 La Vallée des éponges avec Pierre Le Guen, coll. "Rouge et Or Dauphine", 1958
 Deux Oiseaux ont disparu avec Pierre Le Guen, coll. "Rouge et Or Souveraine", 1960
 Réédité chez Odege en 1969 avec des dessins de Monique Gorde.
@@ -677,29 +1055,181 @@
 L'Or du banc d'argent avec Michel Jouin, coll. "Aventures", 1968
 Surcouf, roi de la course avec Michel Jouin, coll. "Olympic", 1969
 Réédition condensée dans la coll. "Spirale" en 1976 avec des dessins de Jean Retailleau
-Le Gentilhomme du Sud avec François Dupuis, coll. "Olympic", 1971
-Éditions Odege
-Grappin d'or avec Tedesco, 1965
+Le Gentilhomme du Sud avec François Dupuis, coll. "Olympic", 1971</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Éditions Odege</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Grappin d'or avec Tedesco, 1965
 Colin l'archer avec Philippe Degrave, 1967
 Guillaume le Conquérant avec Daniel Billon, 1969
 Histoires du gaillard d'avant avec Paul Durand, 1971
 Réédité chez Gallimard Jeunesse en 1984 avec des dessins de Gilbert Maurel.
 Histoires de la lande et de la brume avec Paul Durand, 1972
-Réédité chez  Chardon Bleu en  1988 avec des dessins de Philippe Pauzin.
-Éditions Casterman
-Série Les Aventures de Jeremy Brand :
+Réédité chez  Chardon Bleu en  1988 avec des dessins de Philippe Pauzin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Éditions Casterman</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Série Les Aventures de Jeremy Brand :
 Le Cri du kookabura avec Christophe Blain, 1995 (réédité en 2008 avec une nouvelle couverture)
 La Chasse au merle avec Christophe Blain, 1997
-L'Or des montagnes bleues avec Matthieu Bonhomme, 2001 (réédité en 2008 avec une nouvelle couverture de Ch. Blain)
-Presses de la Cité
-Série L'Or, l'amour et la gloire, coll. "Romans Historiques et Aventures" :
+L'Or des montagnes bleues avec Matthieu Bonhomme, 2001 (réédité en 2008 avec une nouvelle couverture de Ch. Blain)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Presses de la Cité</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Série L'Or, l'amour et la gloire, coll. "Romans Historiques et Aventures" :
 Ce Vent qui vient de la mer, 2001
 Un Cadet de flibuste, 2002
 La Castille d'Or, 2002
 Les Galions de Manille, 2003
-Capitaine Lescop, 2004
-Autres
-L'Évadé de l'île de Groix avec Jean Krillé, Jeunesse héroïque n°66, coll. "France d'Abord", Les Éditeurs Réunis, 1946(?)
+Capitaine Lescop, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>L'Évadé de l'île de Groix avec Jean Krillé, Jeunesse héroïque n°66, coll. "France d'Abord", Les Éditeurs Réunis, 1946(?)
 Une Caméra dans le Vercors, avec André Joy, Jeunesse héroïque n°73, coll. "France d'Abord", Les Éditeurs Réunis, 1946(?)
 Le Cavalier des Andes avec André Joy, Jeunesse héroïque n°88, coll. "France d'Abord", Les Éditeurs Réunis, 1946(?)
 Capitaine Cormoran Corsaire (sous le pseudonyme de Jean Leroy) avec ?, Éditions Au Rendez-Vous de l'Aventure, 1967
@@ -713,51 +1243,124 @@
 Jacques Cartier et la découverte du Canada avec Jean-Marie Le Faou, coll. "Le Monde en Poche", Nathan, 1989
 21 janvier 1793 - Louis XVI le roi guillotiné avec Pascal Remy, coll. "Les Tournants de l'Histoire du monde", Hachette, 1989
 Le Pirate du Mississippi avec Luc Weissmüller, coll. "Bibliothèque verte", Hachette Jeunesse, 1992
-Le Viking du dernier rivage avec Eduardo Coelho, coll. "Histoires d'Histoire", Hatier, 1993
-Divers
-Les Mascottes du Tahiti-Nui de Jaime Bustos Mandiola, coll. "Rouge et Or", Éditions G.P., 1959
+Le Viking du dernier rivage avec Eduardo Coelho, coll. "Histoires d'Histoire", Hatier, 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Les Mascottes du Tahiti-Nui de Jaime Bustos Mandiola, coll. "Rouge et Or", Éditions G.P., 1959
 Appendice de Jean Ollivier retraçant la vie d'Éric de Bisschop
 L'Or - Histoires de l'or des Incas à nos jours, coll. "LF Document", éditions La Farandole, 1987
 Alexandre Œxmelin, L'Âge d'or de la flibuste, éditions Messidor, 1987</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jean_Ollivier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Grand Prix Enfance du Monde au 2e Salon de l'Enfance pour Deux Oiseaux ont disparu (dessins de Pierre Le Guen), en 1960.
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Grand Prix Enfance du Monde au 2e Salon de l'Enfance pour Deux Oiseaux ont disparu (dessins de Pierre Le Guen), en 1960.
 Grand Prix de Littérature au 3e Salon de l'Enfance pour L'Aventure viking (dessins de Pierre Le Guen), en 1961.
-(international) « Runner-Up List » 1964[2], de l' IBBY, pour Les Saltimbanques, illustrations de René Moreu
+(international) « Runner-Up List » 1964, de l' IBBY, pour Les Saltimbanques, illustrations de René Moreu
 Prix Phénix (avec Eduardo Coelho) de la meilleure bande dessinée réaliste et d'aventure pour Ragnar le Viking, décerné par la Société française de la Bande dessinée (France) en 1969.
 Prix Korrigan pour Le Chaudron d'or (dessins de Paul Durand) en 1975.
 Prix Jean Macé (avec Eduardo Coelho) pour Vikings, Conquérants de la mer, décerné par la Ligue de l'enseignement en 1976.
-Sélection Prix du patrimoine, Festival d'Angoulême 2005, pour Ragnar de Eduardo Teixeira Coelho et Jean Ollivier
-Récompenses collectives
-Prix Haga de la meilleure collection de bandes dessinées pour L'Histoire de France en bandes dessinées au 5e Salon National de la Bande Dessinée de Toulouse en 1977.
+Sélection Prix du patrimoine, Festival d'Angoulême 2005, pour Ragnar de Eduardo Teixeira Coelho et Jean Ollivier</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Ollivier</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Récompenses collectives</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Prix Haga de la meilleure collection de bandes dessinées pour L'Histoire de France en bandes dessinées au 5e Salon National de la Bande Dessinée de Toulouse en 1977.
 Prix Alfred de la promotion de la BD pour la collection La Découverte du Monde en bandes dessinées au 7e Salon International de la Bande Dessinée d'Angoulême en 1980.</t>
         </is>
       </c>
